--- a/опт и Краснодар/2023/12,23/04,12,23 Сочи/дв 04,12,23 счрсч от филиала.xlsx
+++ b/опт и Краснодар/2023/12,23/04,12,23 Сочи/дв 04,12,23 счрсч от филиала.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Uaer4\Desktop\04,12,23 Сочи\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\ПОКОМ\pokom_data\опт и Краснодар\2023\12,23\04,12,23 Сочи\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{779BD5C2-8C64-4648-86F1-86F7E9753F15}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04C451AB-DA94-43B1-B85E-EA64EB3C4BD5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6867,7 +6867,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q19" sqref="Q19"/>
+      <selection pane="bottomLeft" activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="11.45" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
@@ -7019,60 +7019,60 @@
       <c r="C5" s="4"/>
       <c r="D5" s="5"/>
       <c r="E5" s="16">
-        <f t="shared" ref="E5:F5" si="0">SUM(E6:E209)</f>
+        <f>SUM(E6:E209)</f>
         <v>6208.4449999999997</v>
       </c>
       <c r="F5" s="16">
-        <f t="shared" si="0"/>
+        <f>SUM(F6:F209)</f>
         <v>3231.5080000000003</v>
       </c>
       <c r="G5" s="12"/>
       <c r="H5" s="13"/>
       <c r="I5" s="16">
-        <f t="shared" ref="I5:P5" si="1">SUM(I6:I209)</f>
+        <f>SUM(I6:I209)</f>
         <v>6537.5390000000016</v>
       </c>
       <c r="J5" s="16">
-        <f t="shared" si="1"/>
+        <f>SUM(J6:J209)</f>
         <v>-329.09399999999994</v>
       </c>
       <c r="K5" s="16">
-        <f t="shared" si="1"/>
+        <f>SUM(K6:K209)</f>
         <v>0</v>
       </c>
       <c r="L5" s="16">
-        <f t="shared" si="1"/>
+        <f>SUM(L6:L209)</f>
         <v>4063.6839999999997</v>
       </c>
       <c r="M5" s="16">
-        <f t="shared" si="1"/>
+        <f>SUM(M6:M209)</f>
         <v>1241.6889999999999</v>
       </c>
       <c r="N5" s="16">
-        <f t="shared" si="1"/>
+        <f>SUM(N6:N209)</f>
         <v>8110.5452000000014</v>
       </c>
       <c r="O5" s="16">
-        <f t="shared" ref="O5" si="2">SUM(O6:O209)</f>
+        <f>SUM(O6:O209)</f>
         <v>3906.2</v>
       </c>
       <c r="P5" s="16">
-        <f t="shared" si="1"/>
+        <f>SUM(P6:P209)</f>
         <v>2545</v>
       </c>
       <c r="Q5" s="17"/>
       <c r="R5" s="2"/>
       <c r="S5" s="2"/>
       <c r="T5" s="16">
-        <f t="shared" ref="T5:V5" si="3">SUM(T6:T209)</f>
+        <f>SUM(T6:T209)</f>
         <v>916.6464000000002</v>
       </c>
       <c r="U5" s="16">
-        <f t="shared" si="3"/>
+        <f>SUM(U6:U209)</f>
         <v>1125.549</v>
       </c>
       <c r="V5" s="16">
-        <f t="shared" si="3"/>
+        <f>SUM(V6:V209)</f>
         <v>911.50519999999972</v>
       </c>
       <c r="W5" s="2"/>
@@ -7187,7 +7187,7 @@
         <v>26.4</v>
       </c>
       <c r="J7" s="9">
-        <f t="shared" ref="J7:J70" si="4">E7-I7</f>
+        <f t="shared" ref="J7:J70" si="0">E7-I7</f>
         <v>-2.8619999999999983</v>
       </c>
       <c r="L7" s="9">
@@ -7195,23 +7195,23 @@
         <v>84.104000000000013</v>
       </c>
       <c r="M7" s="9">
-        <f t="shared" ref="M7:M70" si="5">E7/5</f>
+        <f t="shared" ref="M7:M70" si="1">E7/5</f>
         <v>4.7076000000000002</v>
       </c>
       <c r="N7" s="19"/>
       <c r="O7" s="19">
-        <f t="shared" ref="O7:O70" si="6">N7</f>
+        <f t="shared" ref="O7:O70" si="2">N7</f>
         <v>0</v>
       </c>
       <c r="P7" s="19">
         <v>0</v>
       </c>
       <c r="R7" s="9">
-        <f t="shared" ref="R7:R70" si="7">(F7+L7+O7)/M7</f>
+        <f t="shared" ref="R7:R70" si="3">(F7+L7+O7)/M7</f>
         <v>21.902243181238848</v>
       </c>
       <c r="S7" s="9">
-        <f t="shared" ref="S7:S70" si="8">(F7+L7)/M7</f>
+        <f t="shared" ref="S7:S70" si="4">(F7+L7)/M7</f>
         <v>21.902243181238848</v>
       </c>
       <c r="T7" s="9">
@@ -7227,7 +7227,7 @@
         <v>8.4160000000000004</v>
       </c>
       <c r="X7" s="9">
-        <f t="shared" ref="X7:X70" si="9">O7*G7</f>
+        <f t="shared" ref="X7:X70" si="5">O7*G7</f>
         <v>0</v>
       </c>
     </row>
@@ -7263,7 +7263,7 @@
         <v>14.4</v>
       </c>
       <c r="J8" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>0.47599999999999909</v>
       </c>
       <c r="L8" s="9">
@@ -7271,7 +7271,7 @@
         <v>0</v>
       </c>
       <c r="M8" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>2.9752000000000001</v>
       </c>
       <c r="N8" s="19">
@@ -7283,11 +7283,11 @@
       </c>
       <c r="P8" s="19"/>
       <c r="R8" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>12.814264587254637</v>
       </c>
       <c r="S8" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>2.7309088464641031</v>
       </c>
       <c r="T8" s="9">
@@ -7303,7 +7303,7 @@
         <v>1.3759999999999999</v>
       </c>
       <c r="X8" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>30</v>
       </c>
     </row>
@@ -7334,28 +7334,28 @@
         <v>2</v>
       </c>
       <c r="J9" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L9" s="9">
         <v>0</v>
       </c>
       <c r="M9" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>0.4</v>
       </c>
       <c r="N9" s="19"/>
       <c r="O9" s="19">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P9" s="19"/>
       <c r="R9" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>-5</v>
       </c>
       <c r="S9" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>-5</v>
       </c>
       <c r="T9" s="9">
@@ -7368,7 +7368,7 @@
         <v>0</v>
       </c>
       <c r="X9" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -7404,7 +7404,7 @@
         <v>85</v>
       </c>
       <c r="J10" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>-11</v>
       </c>
       <c r="L10" s="9">
@@ -7412,23 +7412,23 @@
         <v>224</v>
       </c>
       <c r="M10" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>14.8</v>
       </c>
       <c r="N10" s="19"/>
       <c r="O10" s="19">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P10" s="19">
         <v>0</v>
       </c>
       <c r="R10" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>17.905405405405403</v>
       </c>
       <c r="S10" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>17.905405405405403</v>
       </c>
       <c r="T10" s="9">
@@ -7444,7 +7444,7 @@
         <v>23.4</v>
       </c>
       <c r="X10" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -7480,7 +7480,7 @@
         <v>350</v>
       </c>
       <c r="J11" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>-23</v>
       </c>
       <c r="L11" s="9">
@@ -7488,7 +7488,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>65.400000000000006</v>
       </c>
       <c r="N11" s="19">
@@ -7505,11 +7505,11 @@
         <v>111</v>
       </c>
       <c r="R11" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>13.960244648318042</v>
       </c>
       <c r="S11" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>3.2568807339449539</v>
       </c>
       <c r="T11" s="9">
@@ -7525,7 +7525,7 @@
         <v>62.6</v>
       </c>
       <c r="X11" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>280</v>
       </c>
     </row>
@@ -7559,7 +7559,7 @@
         <v>11</v>
       </c>
       <c r="J12" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L12" s="9">
@@ -7567,11 +7567,11 @@
         <v>0</v>
       </c>
       <c r="M12" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>2.2000000000000002</v>
       </c>
       <c r="N12" s="19">
-        <f t="shared" ref="N12:N14" si="10">14*M12-L12-F12</f>
+        <f t="shared" ref="N12:N14" si="6">14*M12-L12-F12</f>
         <v>17.800000000000004</v>
       </c>
       <c r="O12" s="19">
@@ -7579,11 +7579,11 @@
       </c>
       <c r="P12" s="19"/>
       <c r="R12" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>14.999999999999998</v>
       </c>
       <c r="S12" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>5.9090909090909083</v>
       </c>
       <c r="T12" s="9">
@@ -7599,7 +7599,7 @@
         <v>0</v>
       </c>
       <c r="X12" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
     </row>
@@ -7635,7 +7635,7 @@
         <v>259</v>
       </c>
       <c r="J13" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>-2</v>
       </c>
       <c r="L13" s="9">
@@ -7643,11 +7643,11 @@
         <v>349</v>
       </c>
       <c r="M13" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>51.4</v>
       </c>
       <c r="N13" s="19">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>388.6</v>
       </c>
       <c r="O13" s="37">
@@ -7657,11 +7657,11 @@
         <v>0</v>
       </c>
       <c r="R13" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>6.4396887159533076</v>
       </c>
       <c r="S13" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>6.4396887159533076</v>
       </c>
       <c r="T13" s="9">
@@ -7677,7 +7677,7 @@
         <v>39</v>
       </c>
       <c r="X13" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -7713,7 +7713,7 @@
         <v>249</v>
       </c>
       <c r="J14" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>-16</v>
       </c>
       <c r="L14" s="9">
@@ -7721,11 +7721,11 @@
         <v>0</v>
       </c>
       <c r="M14" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>46.6</v>
       </c>
       <c r="N14" s="19">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>285.39999999999998</v>
       </c>
       <c r="O14" s="37">
@@ -7735,11 +7735,11 @@
         <v>0</v>
       </c>
       <c r="R14" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>7.8755364806866952</v>
       </c>
       <c r="S14" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>7.8755364806866952</v>
       </c>
       <c r="T14" s="9">
@@ -7755,7 +7755,7 @@
         <v>49</v>
       </c>
       <c r="X14" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -7791,7 +7791,7 @@
         <v>23</v>
       </c>
       <c r="J15" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>-3</v>
       </c>
       <c r="L15" s="9">
@@ -7799,21 +7799,21 @@
         <v>0</v>
       </c>
       <c r="M15" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="N15" s="19"/>
       <c r="O15" s="19">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P15" s="19"/>
       <c r="R15" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="S15" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>15</v>
       </c>
       <c r="T15" s="9">
@@ -7829,7 +7829,7 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="X15" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -7865,7 +7865,7 @@
         <v>5</v>
       </c>
       <c r="J16" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>-3</v>
       </c>
       <c r="L16" s="9">
@@ -7873,21 +7873,21 @@
         <v>0</v>
       </c>
       <c r="M16" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>0.4</v>
       </c>
       <c r="N16" s="19"/>
       <c r="O16" s="19">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P16" s="19"/>
       <c r="R16" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>65</v>
       </c>
       <c r="S16" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>65</v>
       </c>
       <c r="T16" s="9">
@@ -7906,7 +7906,7 @@
         <v>106</v>
       </c>
       <c r="X16" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -7944,7 +7944,7 @@
         <v>30</v>
       </c>
       <c r="J17" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>-1</v>
       </c>
       <c r="L17" s="9">
@@ -7952,7 +7952,7 @@
         <v>80</v>
       </c>
       <c r="M17" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>5.8</v>
       </c>
       <c r="N17" s="19"/>
@@ -7966,11 +7966,11 @@
         <v>112</v>
       </c>
       <c r="R17" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
       <c r="S17" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>19.827586206896552</v>
       </c>
       <c r="T17" s="9">
@@ -7986,7 +7986,7 @@
         <v>8.1999999999999993</v>
       </c>
       <c r="X17" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
     </row>
@@ -8020,7 +8020,7 @@
         <v>21</v>
       </c>
       <c r="J18" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L18" s="9">
@@ -8028,7 +8028,7 @@
         <v>10</v>
       </c>
       <c r="M18" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>4.2</v>
       </c>
       <c r="N18" s="19">
@@ -8045,11 +8045,11 @@
         <v>113</v>
       </c>
       <c r="R18" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="S18" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>4.2857142857142856</v>
       </c>
       <c r="T18" s="9">
@@ -8065,7 +8065,7 @@
         <v>2.6</v>
       </c>
       <c r="X18" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>7.65</v>
       </c>
     </row>
@@ -8097,28 +8097,28 @@
         <v>1</v>
       </c>
       <c r="J19" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L19" s="9">
         <v>0</v>
       </c>
       <c r="M19" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>0.2</v>
       </c>
       <c r="N19" s="19"/>
       <c r="O19" s="19">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P19" s="19"/>
       <c r="R19" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>85</v>
       </c>
       <c r="S19" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>85</v>
       </c>
       <c r="T19" s="9">
@@ -8131,7 +8131,7 @@
         <v>0</v>
       </c>
       <c r="X19" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -8165,7 +8165,7 @@
         <v>19</v>
       </c>
       <c r="J20" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>-3</v>
       </c>
       <c r="L20" s="9">
@@ -8173,11 +8173,11 @@
         <v>35</v>
       </c>
       <c r="M20" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>3.2</v>
       </c>
       <c r="N20" s="19">
-        <f t="shared" ref="N20" si="11">14*M20-L20-F20</f>
+        <f t="shared" ref="N20" si="7">14*M20-L20-F20</f>
         <v>12.800000000000004</v>
       </c>
       <c r="O20" s="19">
@@ -8185,11 +8185,11 @@
       </c>
       <c r="P20" s="19"/>
       <c r="R20" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>14.6875</v>
       </c>
       <c r="S20" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="T20" s="9">
@@ -8205,7 +8205,7 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="X20" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>6.75</v>
       </c>
     </row>
@@ -8233,7 +8233,7 @@
         <v>0</v>
       </c>
       <c r="J21" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L21" s="9">
@@ -8241,21 +8241,21 @@
         <v>0</v>
       </c>
       <c r="M21" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N21" s="19"/>
       <c r="O21" s="19">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P21" s="19"/>
       <c r="R21" s="9" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S21" s="9" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T21" s="9">
@@ -8274,7 +8274,7 @@
         <v>104</v>
       </c>
       <c r="X21" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -8312,7 +8312,7 @@
         <v>34</v>
       </c>
       <c r="J22" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>83</v>
       </c>
       <c r="L22" s="9">
@@ -8320,7 +8320,7 @@
         <v>96</v>
       </c>
       <c r="M22" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>23.4</v>
       </c>
       <c r="N22" s="19"/>
@@ -8334,11 +8334,11 @@
         <v>114</v>
       </c>
       <c r="R22" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>17.564102564102566</v>
       </c>
       <c r="S22" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>15.000000000000002</v>
       </c>
       <c r="T22" s="9">
@@ -8354,7 +8354,7 @@
         <v>31.2</v>
       </c>
       <c r="X22" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>30</v>
       </c>
     </row>
@@ -8388,7 +8388,7 @@
         <v>11</v>
       </c>
       <c r="J23" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L23" s="9">
@@ -8396,7 +8396,7 @@
         <v>58</v>
       </c>
       <c r="M23" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>2.2000000000000002</v>
       </c>
       <c r="N23" s="19"/>
@@ -8410,11 +8410,11 @@
         <v>111</v>
       </c>
       <c r="R23" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>44.090909090909086</v>
       </c>
       <c r="S23" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>30.454545454545453</v>
       </c>
       <c r="T23" s="9">
@@ -8430,7 +8430,7 @@
         <v>6</v>
       </c>
       <c r="X23" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>15</v>
       </c>
     </row>
@@ -8466,7 +8466,7 @@
         <v>57</v>
       </c>
       <c r="J24" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>-8</v>
       </c>
       <c r="L24" s="9">
@@ -8474,11 +8474,11 @@
         <v>0</v>
       </c>
       <c r="M24" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>9.8000000000000007</v>
       </c>
       <c r="N24" s="19">
-        <f t="shared" ref="N24:N26" si="12">14*M24-L24-F24</f>
+        <f t="shared" ref="N24:N26" si="8">14*M24-L24-F24</f>
         <v>76.200000000000017</v>
       </c>
       <c r="O24" s="37">
@@ -8488,11 +8488,11 @@
         <v>0</v>
       </c>
       <c r="R24" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>6.2244897959183669</v>
       </c>
       <c r="S24" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>6.2244897959183669</v>
       </c>
       <c r="T24" s="9">
@@ -8508,7 +8508,7 @@
         <v>10</v>
       </c>
       <c r="X24" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -8540,7 +8540,7 @@
         <v>10</v>
       </c>
       <c r="J25" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>-10</v>
       </c>
       <c r="L25" s="9">
@@ -8548,23 +8548,23 @@
         <v>0</v>
       </c>
       <c r="M25" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N25" s="19"/>
       <c r="O25" s="19">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P25" s="19">
         <v>0</v>
       </c>
       <c r="R25" s="9" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S25" s="9" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T25" s="9">
@@ -8580,7 +8580,7 @@
         <v>-0.2</v>
       </c>
       <c r="X25" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -8616,7 +8616,7 @@
         <v>152</v>
       </c>
       <c r="J26" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>-15</v>
       </c>
       <c r="L26" s="9">
@@ -8624,11 +8624,11 @@
         <v>113</v>
       </c>
       <c r="M26" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>27.4</v>
       </c>
       <c r="N26" s="19">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>241.59999999999997</v>
       </c>
       <c r="O26" s="37">
@@ -8638,11 +8638,11 @@
         <v>0</v>
       </c>
       <c r="R26" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>5.1824817518248176</v>
       </c>
       <c r="S26" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>5.1824817518248176</v>
       </c>
       <c r="T26" s="9">
@@ -8658,7 +8658,7 @@
         <v>19.399999999999999</v>
       </c>
       <c r="X26" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -8694,7 +8694,7 @@
         <v>52</v>
       </c>
       <c r="J27" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L27" s="9">
@@ -8702,7 +8702,7 @@
         <v>0</v>
       </c>
       <c r="M27" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>10.4</v>
       </c>
       <c r="N27" s="19">
@@ -8716,11 +8716,11 @@
         <v>0</v>
       </c>
       <c r="R27" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>3.9423076923076921</v>
       </c>
       <c r="S27" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>3.9423076923076921</v>
       </c>
       <c r="T27" s="9">
@@ -8736,7 +8736,7 @@
         <v>6.4</v>
       </c>
       <c r="X27" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -8772,7 +8772,7 @@
         <v>25</v>
       </c>
       <c r="J28" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>-6</v>
       </c>
       <c r="L28" s="9">
@@ -8780,7 +8780,7 @@
         <v>54</v>
       </c>
       <c r="M28" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>3.8</v>
       </c>
       <c r="N28" s="19"/>
@@ -8794,11 +8794,11 @@
         <v>111</v>
       </c>
       <c r="R28" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>22.894736842105264</v>
       </c>
       <c r="S28" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>15</v>
       </c>
       <c r="T28" s="9">
@@ -8814,7 +8814,7 @@
         <v>5.2</v>
       </c>
       <c r="X28" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>11.4</v>
       </c>
     </row>
@@ -8845,7 +8845,7 @@
         <v>48</v>
       </c>
       <c r="J29" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>-6</v>
       </c>
       <c r="L29" s="9">
@@ -8853,12 +8853,12 @@
         <v>50</v>
       </c>
       <c r="M29" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>8.4</v>
       </c>
       <c r="N29" s="19"/>
       <c r="O29" s="19">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P29" s="37">
@@ -8868,11 +8868,11 @@
         <v>115</v>
       </c>
       <c r="R29" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>5.9523809523809526</v>
       </c>
       <c r="S29" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>5.9523809523809526</v>
       </c>
       <c r="T29" s="9">
@@ -8891,7 +8891,7 @@
         <v>104</v>
       </c>
       <c r="X29" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -8927,7 +8927,7 @@
         <v>313</v>
       </c>
       <c r="J30" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>-40</v>
       </c>
       <c r="L30" s="9">
@@ -8935,7 +8935,7 @@
         <v>139</v>
       </c>
       <c r="M30" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>54.6</v>
       </c>
       <c r="N30" s="19">
@@ -8949,11 +8949,11 @@
         <v>0</v>
       </c>
       <c r="R30" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>3.0769230769230766</v>
       </c>
       <c r="S30" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>3.0769230769230766</v>
       </c>
       <c r="T30" s="9">
@@ -8969,7 +8969,7 @@
         <v>30</v>
       </c>
       <c r="X30" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -9005,7 +9005,7 @@
         <v>149</v>
       </c>
       <c r="J31" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>-12</v>
       </c>
       <c r="L31" s="9">
@@ -9013,11 +9013,11 @@
         <v>165</v>
       </c>
       <c r="M31" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>27.4</v>
       </c>
       <c r="N31" s="19">
-        <f t="shared" ref="N31:N37" si="13">14*M31-L31-F31</f>
+        <f t="shared" ref="N31:N37" si="9">14*M31-L31-F31</f>
         <v>132.59999999999997</v>
       </c>
       <c r="O31" s="37">
@@ -9027,11 +9027,11 @@
         <v>0</v>
       </c>
       <c r="R31" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>9.1605839416058394</v>
       </c>
       <c r="S31" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>9.1605839416058394</v>
       </c>
       <c r="T31" s="9">
@@ -9047,7 +9047,7 @@
         <v>26.4</v>
       </c>
       <c r="X31" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -9083,7 +9083,7 @@
         <v>112</v>
       </c>
       <c r="J32" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>-6</v>
       </c>
       <c r="L32" s="9">
@@ -9091,7 +9091,7 @@
         <v>30</v>
       </c>
       <c r="M32" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>21.2</v>
       </c>
       <c r="N32" s="19">
@@ -9105,11 +9105,11 @@
         <v>0</v>
       </c>
       <c r="R32" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>2.3113207547169812</v>
       </c>
       <c r="S32" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>2.3113207547169812</v>
       </c>
       <c r="T32" s="9">
@@ -9125,7 +9125,7 @@
         <v>5.2</v>
       </c>
       <c r="X32" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -9159,7 +9159,7 @@
         <v>131</v>
       </c>
       <c r="J33" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>-16</v>
       </c>
       <c r="L33" s="9">
@@ -9167,11 +9167,11 @@
         <v>30</v>
       </c>
       <c r="M33" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>23</v>
       </c>
       <c r="N33" s="19">
-        <f t="shared" ref="N33:N34" si="14">11*M33-L33-F33</f>
+        <f t="shared" ref="N33:N34" si="10">11*M33-L33-F33</f>
         <v>215</v>
       </c>
       <c r="O33" s="37">
@@ -9181,11 +9181,11 @@
         <v>0</v>
       </c>
       <c r="R33" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>1.6521739130434783</v>
       </c>
       <c r="S33" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>1.6521739130434783</v>
       </c>
       <c r="T33" s="9">
@@ -9201,7 +9201,7 @@
         <v>5.2</v>
       </c>
       <c r="X33" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -9237,7 +9237,7 @@
         <v>133</v>
       </c>
       <c r="J34" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>-9</v>
       </c>
       <c r="L34" s="9">
@@ -9245,11 +9245,11 @@
         <v>30</v>
       </c>
       <c r="M34" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>24.8</v>
       </c>
       <c r="N34" s="19">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>232.8</v>
       </c>
       <c r="O34" s="37">
@@ -9259,11 +9259,11 @@
         <v>0</v>
       </c>
       <c r="R34" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>1.6129032258064515</v>
       </c>
       <c r="S34" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>1.6129032258064515</v>
       </c>
       <c r="T34" s="9">
@@ -9279,7 +9279,7 @@
         <v>5.6</v>
       </c>
       <c r="X34" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -9315,7 +9315,7 @@
         <v>296.95</v>
       </c>
       <c r="J35" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>-0.34999999999996589</v>
       </c>
       <c r="L35" s="9">
@@ -9323,11 +9323,11 @@
         <v>200</v>
       </c>
       <c r="M35" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>59.320000000000007</v>
       </c>
       <c r="N35" s="19">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>522.4670000000001</v>
       </c>
       <c r="O35" s="19">
@@ -9340,11 +9340,11 @@
         <v>116</v>
       </c>
       <c r="R35" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>8.5639413351314904</v>
       </c>
       <c r="S35" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>5.1923971679028993</v>
       </c>
       <c r="T35" s="9">
@@ -9360,7 +9360,7 @@
         <v>8.5</v>
       </c>
       <c r="X35" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>200</v>
       </c>
     </row>
@@ -9392,28 +9392,28 @@
         <v>0.76</v>
       </c>
       <c r="J36" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>1.3000000000000012E-2</v>
       </c>
       <c r="L36" s="9">
         <v>0</v>
       </c>
       <c r="M36" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>0.15460000000000002</v>
       </c>
       <c r="N36" s="19"/>
       <c r="O36" s="19">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P36" s="19"/>
       <c r="R36" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>75.601552393272954</v>
       </c>
       <c r="S36" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>75.601552393272954</v>
       </c>
       <c r="T36" s="9">
@@ -9429,7 +9429,7 @@
         <v>102</v>
       </c>
       <c r="X36" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -9465,7 +9465,7 @@
         <v>329.33499999999998</v>
       </c>
       <c r="J37" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>4.1800000000000068</v>
       </c>
       <c r="L37" s="9">
@@ -9473,11 +9473,11 @@
         <v>217.95399999999995</v>
       </c>
       <c r="M37" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>66.703000000000003</v>
       </c>
       <c r="N37" s="19">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>622.59300000000019</v>
       </c>
       <c r="O37" s="19">
@@ -9490,11 +9490,11 @@
         <v>116</v>
       </c>
       <c r="R37" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>7.6645578159902845</v>
       </c>
       <c r="S37" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>4.6661919254006561</v>
       </c>
       <c r="T37" s="9">
@@ -9510,7 +9510,7 @@
         <v>42.2956</v>
       </c>
       <c r="X37" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>200</v>
       </c>
     </row>
@@ -9543,7 +9543,7 @@
         <v>0.34200000000000003</v>
       </c>
       <c r="J38" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>4.8999999999999988E-2</v>
       </c>
       <c r="L38" s="9">
@@ -9551,21 +9551,21 @@
         <v>0</v>
       </c>
       <c r="M38" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>7.8200000000000006E-2</v>
       </c>
       <c r="N38" s="19"/>
       <c r="O38" s="19">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P38" s="19"/>
       <c r="R38" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>-0.62659846547314579</v>
       </c>
       <c r="S38" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>-0.62659846547314579</v>
       </c>
       <c r="T38" s="9">
@@ -9581,7 +9581,7 @@
         <v>7.9000000000000001E-2</v>
       </c>
       <c r="X38" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -9617,7 +9617,7 @@
         <v>25.04</v>
       </c>
       <c r="J39" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>0.78000000000000114</v>
       </c>
       <c r="L39" s="9">
@@ -9625,23 +9625,23 @@
         <v>40</v>
       </c>
       <c r="M39" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>5.1639999999999997</v>
       </c>
       <c r="N39" s="19"/>
       <c r="O39" s="19">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P39" s="19">
         <v>0</v>
       </c>
       <c r="R39" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>20.761037955073586</v>
       </c>
       <c r="S39" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>20.761037955073586</v>
       </c>
       <c r="T39" s="9">
@@ -9657,7 +9657,7 @@
         <v>5.58</v>
       </c>
       <c r="X39" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -9693,7 +9693,7 @@
         <v>72.5</v>
       </c>
       <c r="J40" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>-3.2999999999999972</v>
       </c>
       <c r="L40" s="9">
@@ -9701,7 +9701,7 @@
         <v>0</v>
       </c>
       <c r="M40" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>13.84</v>
       </c>
       <c r="N40" s="19">
@@ -9715,11 +9715,11 @@
         <v>0</v>
       </c>
       <c r="R40" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>2.8417630057803467</v>
       </c>
       <c r="S40" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>2.8417630057803467</v>
       </c>
       <c r="T40" s="9">
@@ -9735,7 +9735,7 @@
         <v>11.28</v>
       </c>
       <c r="X40" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -9771,7 +9771,7 @@
         <v>4.8</v>
       </c>
       <c r="J41" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>0.29100000000000037</v>
       </c>
       <c r="L41" s="9">
@@ -9779,7 +9779,7 @@
         <v>14.225000000000001</v>
       </c>
       <c r="M41" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>1.0182</v>
       </c>
       <c r="N41" s="19">
@@ -9795,11 +9795,11 @@
         <v>113</v>
       </c>
       <c r="R41" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>21.600864270280887</v>
       </c>
       <c r="S41" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>11.779611078373602</v>
       </c>
       <c r="T41" s="9">
@@ -9815,7 +9815,7 @@
         <v>1.3442000000000001</v>
       </c>
       <c r="X41" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
     </row>
@@ -9849,7 +9849,7 @@
         <v>1.4</v>
       </c>
       <c r="J42" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>-2.79</v>
       </c>
       <c r="L42" s="9">
@@ -9857,21 +9857,21 @@
         <v>0</v>
       </c>
       <c r="M42" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>-0.27799999999999997</v>
       </c>
       <c r="N42" s="19"/>
       <c r="O42" s="19">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P42" s="19"/>
       <c r="R42" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>-31.920863309352523</v>
       </c>
       <c r="S42" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>-31.920863309352523</v>
       </c>
       <c r="T42" s="9">
@@ -9887,7 +9887,7 @@
         <v>0.7036</v>
       </c>
       <c r="X42" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -9923,7 +9923,7 @@
         <v>408.12799999999999</v>
       </c>
       <c r="J43" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>-195.20599999999999</v>
       </c>
       <c r="L43" s="9">
@@ -9931,7 +9931,7 @@
         <v>0</v>
       </c>
       <c r="M43" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>42.584400000000002</v>
       </c>
       <c r="N43" s="19">
@@ -9943,11 +9943,11 @@
       </c>
       <c r="P43" s="19"/>
       <c r="R43" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>9.8951259146541926</v>
       </c>
       <c r="S43" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0.50201482232930361</v>
       </c>
       <c r="T43" s="9">
@@ -9963,7 +9963,7 @@
         <v>1.2676000000000001</v>
       </c>
       <c r="X43" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>400</v>
       </c>
     </row>
@@ -9999,7 +9999,7 @@
         <v>19.649999999999999</v>
       </c>
       <c r="J44" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>-0.27199999999999847</v>
       </c>
       <c r="L44" s="9">
@@ -10007,11 +10007,11 @@
         <v>0</v>
       </c>
       <c r="M44" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>3.8755999999999999</v>
       </c>
       <c r="N44" s="19">
-        <f t="shared" ref="N44:N52" si="15">14*M44-L44-F44</f>
+        <f t="shared" ref="N44:N52" si="11">14*M44-L44-F44</f>
         <v>33.144400000000005</v>
       </c>
       <c r="O44" s="19">
@@ -10019,11 +10019,11 @@
       </c>
       <c r="P44" s="19"/>
       <c r="R44" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>13.188667561151822</v>
       </c>
       <c r="S44" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>5.4479306429972132</v>
       </c>
       <c r="T44" s="9">
@@ -10039,7 +10039,7 @@
         <v>0</v>
       </c>
       <c r="X44" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>30</v>
       </c>
     </row>
@@ -10075,7 +10075,7 @@
         <v>13.169</v>
       </c>
       <c r="J45" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>-0.22499999999999964</v>
       </c>
       <c r="L45" s="9">
@@ -10083,11 +10083,11 @@
         <v>0</v>
       </c>
       <c r="M45" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>2.5888</v>
       </c>
       <c r="N45" s="19">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>24.556200000000004</v>
       </c>
       <c r="O45" s="19">
@@ -10095,11 +10095,11 @@
       </c>
       <c r="P45" s="19"/>
       <c r="R45" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>14.171430778739182</v>
       </c>
       <c r="S45" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>4.5144468479604445</v>
       </c>
       <c r="T45" s="9">
@@ -10115,7 +10115,7 @@
         <v>0.5474</v>
       </c>
       <c r="X45" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>25</v>
       </c>
     </row>
@@ -10151,7 +10151,7 @@
         <v>120.035</v>
       </c>
       <c r="J46" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>2.9039999999999964</v>
       </c>
       <c r="L46" s="9">
@@ -10159,11 +10159,11 @@
         <v>0</v>
       </c>
       <c r="M46" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>24.587799999999998</v>
       </c>
       <c r="N46" s="19">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>172.32919999999999</v>
       </c>
       <c r="O46" s="37">
@@ -10173,11 +10173,11 @@
         <v>0</v>
       </c>
       <c r="R46" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>6.9912720942906654</v>
       </c>
       <c r="S46" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>6.9912720942906654</v>
       </c>
       <c r="T46" s="9">
@@ -10193,7 +10193,7 @@
         <v>22.606400000000001</v>
       </c>
       <c r="X46" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -10229,7 +10229,7 @@
         <v>16.5</v>
       </c>
       <c r="J47" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>-1.4800000000000004</v>
       </c>
       <c r="L47" s="9">
@@ -10237,23 +10237,23 @@
         <v>0</v>
       </c>
       <c r="M47" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>3.004</v>
       </c>
       <c r="N47" s="19">
         <v>5</v>
       </c>
       <c r="O47" s="19">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="P47" s="19"/>
       <c r="R47" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>13.225366178428761</v>
       </c>
       <c r="S47" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>11.56091877496671</v>
       </c>
       <c r="T47" s="9">
@@ -10269,7 +10269,7 @@
         <v>0.27539999999999998</v>
       </c>
       <c r="X47" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
     </row>
@@ -10307,7 +10307,7 @@
         <v>97</v>
       </c>
       <c r="J48" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="L48" s="9">
@@ -10315,11 +10315,11 @@
         <v>113</v>
       </c>
       <c r="M48" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>23</v>
       </c>
       <c r="N48" s="19">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>211</v>
       </c>
       <c r="O48" s="19">
@@ -10332,11 +10332,11 @@
         <v>117</v>
       </c>
       <c r="R48" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>16.565217391304348</v>
       </c>
       <c r="S48" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>4.8260869565217392</v>
       </c>
       <c r="T48" s="9">
@@ -10352,7 +10352,7 @@
         <v>15.2</v>
       </c>
       <c r="X48" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>94.5</v>
       </c>
     </row>
@@ -10390,7 +10390,7 @@
         <v>88</v>
       </c>
       <c r="J49" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="L49" s="9">
@@ -10398,11 +10398,11 @@
         <v>15</v>
       </c>
       <c r="M49" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>23.8</v>
       </c>
       <c r="N49" s="19">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>157.19999999999999</v>
       </c>
       <c r="O49" s="19">
@@ -10410,11 +10410,11 @@
       </c>
       <c r="P49" s="19"/>
       <c r="R49" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>13.907563025210084</v>
       </c>
       <c r="S49" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>7.3949579831932768</v>
       </c>
       <c r="T49" s="9">
@@ -10430,7 +10430,7 @@
         <v>19.399999999999999</v>
       </c>
       <c r="X49" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>62</v>
       </c>
     </row>
@@ -10466,7 +10466,7 @@
         <v>219</v>
       </c>
       <c r="J50" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>-18</v>
       </c>
       <c r="L50" s="9">
@@ -10474,11 +10474,11 @@
         <v>199</v>
       </c>
       <c r="M50" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>40.200000000000003</v>
       </c>
       <c r="N50" s="19">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>163.80000000000007</v>
       </c>
       <c r="O50" s="19">
@@ -10491,11 +10491,11 @@
         <v>115</v>
       </c>
       <c r="R50" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>14.900497512437809</v>
       </c>
       <c r="S50" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>9.9253731343283569</v>
       </c>
       <c r="T50" s="9">
@@ -10511,7 +10511,7 @@
         <v>40.6</v>
       </c>
       <c r="X50" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>90</v>
       </c>
     </row>
@@ -10547,7 +10547,7 @@
         <v>148</v>
       </c>
       <c r="J51" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>-6</v>
       </c>
       <c r="L51" s="9">
@@ -10555,7 +10555,7 @@
         <v>0</v>
       </c>
       <c r="M51" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>28.4</v>
       </c>
       <c r="N51" s="19">
@@ -10567,11 +10567,11 @@
       </c>
       <c r="P51" s="19"/>
       <c r="R51" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>11.02112676056338</v>
       </c>
       <c r="S51" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>2.3943661971830985</v>
       </c>
       <c r="T51" s="9">
@@ -10587,7 +10587,7 @@
         <v>19.399999999999999</v>
       </c>
       <c r="X51" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>98</v>
       </c>
     </row>
@@ -10623,7 +10623,7 @@
         <v>190</v>
       </c>
       <c r="J52" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>-8</v>
       </c>
       <c r="L52" s="9">
@@ -10631,11 +10631,11 @@
         <v>49</v>
       </c>
       <c r="M52" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>36.4</v>
       </c>
       <c r="N52" s="19">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>303.59999999999997</v>
       </c>
       <c r="O52" s="19">
@@ -10643,11 +10643,11 @@
       </c>
       <c r="P52" s="19"/>
       <c r="R52" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>14.038461538461538</v>
       </c>
       <c r="S52" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>5.6593406593406597</v>
       </c>
       <c r="T52" s="9">
@@ -10663,7 +10663,7 @@
         <v>26.2</v>
       </c>
       <c r="X52" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>122</v>
       </c>
     </row>
@@ -10699,7 +10699,7 @@
         <v>35</v>
       </c>
       <c r="J53" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>-3</v>
       </c>
       <c r="L53" s="9">
@@ -10707,7 +10707,7 @@
         <v>0</v>
       </c>
       <c r="M53" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>6.4</v>
       </c>
       <c r="N53" s="19">
@@ -10719,11 +10719,11 @@
       </c>
       <c r="P53" s="19"/>
       <c r="R53" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>9.6875</v>
       </c>
       <c r="S53" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>1.09375</v>
       </c>
       <c r="T53" s="9">
@@ -10739,7 +10739,7 @@
         <v>4</v>
       </c>
       <c r="X53" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>22</v>
       </c>
     </row>
@@ -10770,19 +10770,19 @@
         <v>67</v>
       </c>
       <c r="J54" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>-7</v>
       </c>
       <c r="L54" s="9">
         <v>0</v>
       </c>
       <c r="M54" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="N54" s="19"/>
       <c r="O54" s="19">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P54" s="37">
@@ -10792,11 +10792,11 @@
         <v>118</v>
       </c>
       <c r="R54" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>-5</v>
       </c>
       <c r="S54" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>-5</v>
       </c>
       <c r="T54" s="9">
@@ -10812,7 +10812,7 @@
         <v>120</v>
       </c>
       <c r="X54" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -10848,7 +10848,7 @@
         <v>17</v>
       </c>
       <c r="J55" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L55" s="9">
@@ -10856,11 +10856,11 @@
         <v>0</v>
       </c>
       <c r="M55" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>3.4</v>
       </c>
       <c r="N55" s="19">
-        <f t="shared" ref="N55:N64" si="16">14*M55-L55-F55</f>
+        <f t="shared" ref="N55:N64" si="12">14*M55-L55-F55</f>
         <v>9.6000000000000014</v>
       </c>
       <c r="O55" s="37">
@@ -10870,11 +10870,11 @@
         <v>0</v>
       </c>
       <c r="R55" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>11.176470588235295</v>
       </c>
       <c r="S55" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>11.176470588235295</v>
       </c>
       <c r="T55" s="9">
@@ -10890,7 +10890,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="X55" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -10926,7 +10926,7 @@
         <v>73</v>
       </c>
       <c r="J56" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>-4</v>
       </c>
       <c r="L56" s="9">
@@ -10934,11 +10934,11 @@
         <v>110</v>
       </c>
       <c r="M56" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>13.8</v>
       </c>
       <c r="N56" s="19">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>66.200000000000017</v>
       </c>
       <c r="O56" s="19">
@@ -10951,11 +10951,11 @@
         <v>111</v>
       </c>
       <c r="R56" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>16.44927536231884</v>
       </c>
       <c r="S56" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>9.2028985507246368</v>
       </c>
       <c r="T56" s="9">
@@ -10971,7 +10971,7 @@
         <v>13.2</v>
       </c>
       <c r="X56" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>35</v>
       </c>
     </row>
@@ -11007,7 +11007,7 @@
         <v>229</v>
       </c>
       <c r="J57" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>-7</v>
       </c>
       <c r="L57" s="9">
@@ -11015,7 +11015,7 @@
         <v>0</v>
       </c>
       <c r="M57" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>44.4</v>
       </c>
       <c r="N57" s="19">
@@ -11029,11 +11029,11 @@
         <v>0</v>
       </c>
       <c r="R57" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0.27027027027027029</v>
       </c>
       <c r="S57" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0.27027027027027029</v>
       </c>
       <c r="T57" s="9">
@@ -11049,7 +11049,7 @@
         <v>-0.2</v>
       </c>
       <c r="X57" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -11085,7 +11085,7 @@
         <v>239</v>
       </c>
       <c r="J58" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="L58" s="9">
@@ -11093,7 +11093,7 @@
         <v>0</v>
       </c>
       <c r="M58" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>48</v>
       </c>
       <c r="N58" s="19">
@@ -11107,11 +11107,11 @@
         <v>0</v>
       </c>
       <c r="R58" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0.77083333333333337</v>
       </c>
       <c r="S58" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0.77083333333333337</v>
       </c>
       <c r="T58" s="9">
@@ -11127,7 +11127,7 @@
         <v>12</v>
       </c>
       <c r="X58" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -11161,7 +11161,7 @@
         <v>13</v>
       </c>
       <c r="J59" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>-1</v>
       </c>
       <c r="L59" s="9">
@@ -11169,21 +11169,21 @@
         <v>28</v>
       </c>
       <c r="M59" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>2.4</v>
       </c>
       <c r="N59" s="19"/>
       <c r="O59" s="19">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P59" s="19"/>
       <c r="R59" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>23.333333333333336</v>
       </c>
       <c r="S59" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>23.333333333333336</v>
       </c>
       <c r="T59" s="9">
@@ -11199,7 +11199,7 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="X59" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -11233,7 +11233,7 @@
         <v>46.28</v>
       </c>
       <c r="J60" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>1.1299999999999955</v>
       </c>
       <c r="L60" s="9">
@@ -11241,11 +11241,11 @@
         <v>19.872999999999962</v>
       </c>
       <c r="M60" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>9.4819999999999993</v>
       </c>
       <c r="N60" s="19">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>12.062000000000026</v>
       </c>
       <c r="O60" s="37">
@@ -11255,11 +11255,11 @@
         <v>0</v>
       </c>
       <c r="R60" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>12.727905505167683</v>
       </c>
       <c r="S60" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>12.727905505167683</v>
       </c>
       <c r="T60" s="9">
@@ -11275,7 +11275,7 @@
         <v>11.206399999999999</v>
       </c>
       <c r="X60" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -11311,7 +11311,7 @@
         <v>11.85</v>
       </c>
       <c r="J61" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>-2.4900000000000002</v>
       </c>
       <c r="L61" s="9">
@@ -11319,7 +11319,7 @@
         <v>0</v>
       </c>
       <c r="M61" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>1.8719999999999999</v>
       </c>
       <c r="N61" s="19"/>
@@ -11333,11 +11333,11 @@
         <v>113</v>
       </c>
       <c r="R61" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>21.54113247863248</v>
       </c>
       <c r="S61" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>13.528311965811966</v>
       </c>
       <c r="T61" s="9">
@@ -11353,7 +11353,7 @@
         <v>3.8439999999999999</v>
       </c>
       <c r="X61" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>15</v>
       </c>
     </row>
@@ -11387,7 +11387,7 @@
         <v>7</v>
       </c>
       <c r="J62" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>0.32200000000000006</v>
       </c>
       <c r="L62" s="9">
@@ -11395,21 +11395,21 @@
         <v>0</v>
       </c>
       <c r="M62" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>1.4643999999999999</v>
       </c>
       <c r="N62" s="19"/>
       <c r="O62" s="19">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P62" s="19"/>
       <c r="R62" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>183.81453154875717</v>
       </c>
       <c r="S62" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>183.81453154875717</v>
       </c>
       <c r="T62" s="9">
@@ -11425,7 +11425,7 @@
         <v>0</v>
       </c>
       <c r="X62" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -11461,7 +11461,7 @@
         <v>429</v>
       </c>
       <c r="J63" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>-19</v>
       </c>
       <c r="L63" s="9">
@@ -11469,11 +11469,11 @@
         <v>495.28899999999999</v>
       </c>
       <c r="M63" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>82</v>
       </c>
       <c r="N63" s="19">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>359</v>
       </c>
       <c r="O63" s="37">
@@ -11483,11 +11483,11 @@
         <v>0</v>
       </c>
       <c r="R63" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>9.6219512195121943</v>
       </c>
       <c r="S63" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>9.6219512195121943</v>
       </c>
       <c r="T63" s="9">
@@ -11503,7 +11503,7 @@
         <v>80.599999999999994</v>
       </c>
       <c r="X63" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -11539,7 +11539,7 @@
         <v>336</v>
       </c>
       <c r="J64" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>-21</v>
       </c>
       <c r="L64" s="9">
@@ -11547,11 +11547,11 @@
         <v>345</v>
       </c>
       <c r="M64" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>63</v>
       </c>
       <c r="N64" s="19">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>310</v>
       </c>
       <c r="O64" s="37">
@@ -11561,11 +11561,11 @@
         <v>0</v>
       </c>
       <c r="R64" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>9.0793650793650791</v>
       </c>
       <c r="S64" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>9.0793650793650791</v>
       </c>
       <c r="T64" s="9">
@@ -11581,7 +11581,7 @@
         <v>59.6</v>
       </c>
       <c r="X64" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -11617,7 +11617,7 @@
         <v>204</v>
       </c>
       <c r="J65" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>-9</v>
       </c>
       <c r="L65" s="9">
@@ -11625,7 +11625,7 @@
         <v>480</v>
       </c>
       <c r="M65" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>39</v>
       </c>
       <c r="N65" s="19"/>
@@ -11636,11 +11636,11 @@
         <v>0</v>
       </c>
       <c r="R65" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>14.743589743589743</v>
       </c>
       <c r="S65" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>14.743589743589743</v>
       </c>
       <c r="T65" s="9">
@@ -11656,7 +11656,7 @@
         <v>52</v>
       </c>
       <c r="X65" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -11690,7 +11690,7 @@
         <v>20</v>
       </c>
       <c r="J66" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>-4</v>
       </c>
       <c r="L66" s="9">
@@ -11698,7 +11698,7 @@
         <v>0</v>
       </c>
       <c r="M66" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>3.2</v>
       </c>
       <c r="N66" s="19">
@@ -11712,11 +11712,11 @@
         <v>0</v>
       </c>
       <c r="R66" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>2.5</v>
       </c>
       <c r="S66" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>2.5</v>
       </c>
       <c r="T66" s="9">
@@ -11732,7 +11732,7 @@
         <v>4.8</v>
       </c>
       <c r="X66" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -11766,7 +11766,7 @@
         <v>33</v>
       </c>
       <c r="J67" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>-7</v>
       </c>
       <c r="L67" s="9">
@@ -11774,7 +11774,7 @@
         <v>0</v>
       </c>
       <c r="M67" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>5.2</v>
       </c>
       <c r="N67" s="19">
@@ -11788,11 +11788,11 @@
         <v>0</v>
       </c>
       <c r="R67" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="S67" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="T67" s="9">
@@ -11808,7 +11808,7 @@
         <v>5</v>
       </c>
       <c r="X67" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -11846,7 +11846,7 @@
         <v>48.6</v>
       </c>
       <c r="J68" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>-5.0899999999999963</v>
       </c>
       <c r="L68" s="9">
@@ -11854,23 +11854,23 @@
         <v>80.838999999999984</v>
       </c>
       <c r="M68" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>8.7020000000000017</v>
       </c>
       <c r="N68" s="19">
         <v>10</v>
       </c>
       <c r="O68" s="19">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="P68" s="19"/>
       <c r="R68" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>14.176511146862785</v>
       </c>
       <c r="S68" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>13.027350034474829</v>
       </c>
       <c r="T68" s="9">
@@ -11886,7 +11886,7 @@
         <v>10.779599999999999</v>
       </c>
       <c r="X68" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
     </row>
@@ -11924,7 +11924,7 @@
         <v>111</v>
       </c>
       <c r="J69" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>59</v>
       </c>
       <c r="L69" s="9">
@@ -11932,7 +11932,7 @@
         <v>0</v>
       </c>
       <c r="M69" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>34</v>
       </c>
       <c r="N69" s="19">
@@ -11944,11 +11944,11 @@
       </c>
       <c r="P69" s="19"/>
       <c r="R69" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>10.088235294117647</v>
       </c>
       <c r="S69" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>1.1176470588235294</v>
       </c>
       <c r="T69" s="9">
@@ -11967,7 +11967,7 @@
         <v>103</v>
       </c>
       <c r="X69" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>30.5</v>
       </c>
     </row>
@@ -11995,7 +11995,7 @@
         <v>#N/A</v>
       </c>
       <c r="J70" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L70" s="9">
@@ -12003,21 +12003,21 @@
         <v>0</v>
       </c>
       <c r="M70" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N70" s="19"/>
       <c r="O70" s="19">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P70" s="19"/>
       <c r="R70" s="9" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S70" s="9" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T70" s="9">
@@ -12033,7 +12033,7 @@
         <v>0</v>
       </c>
       <c r="X70" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -12069,7 +12069,7 @@
         <v>21</v>
       </c>
       <c r="J71" s="9">
-        <f t="shared" ref="J71:J79" si="17">E71-I71</f>
+        <f t="shared" ref="J71:J79" si="13">E71-I71</f>
         <v>-2</v>
       </c>
       <c r="L71" s="9">
@@ -12077,7 +12077,7 @@
         <v>52</v>
       </c>
       <c r="M71" s="9">
-        <f t="shared" ref="M71:M79" si="18">E71/5</f>
+        <f t="shared" ref="M71:M79" si="14">E71/5</f>
         <v>3.8</v>
       </c>
       <c r="N71" s="19"/>
@@ -12091,11 +12091,11 @@
         <v>111</v>
       </c>
       <c r="R71" s="9">
-        <f t="shared" ref="R71:R79" si="19">(F71+L71+O71)/M71</f>
+        <f t="shared" ref="R71:R79" si="15">(F71+L71+O71)/M71</f>
         <v>19.473684210526315</v>
       </c>
       <c r="S71" s="9">
-        <f t="shared" ref="S71:S79" si="20">(F71+L71)/M71</f>
+        <f t="shared" ref="S71:S79" si="16">(F71+L71)/M71</f>
         <v>14.210526315789474</v>
       </c>
       <c r="T71" s="9">
@@ -12111,7 +12111,7 @@
         <v>5</v>
       </c>
       <c r="X71" s="9">
-        <f t="shared" ref="X71:X82" si="21">O71*G71</f>
+        <f t="shared" ref="X71:X82" si="17">O71*G71</f>
         <v>12</v>
       </c>
     </row>
@@ -12145,7 +12145,7 @@
         <v>14</v>
       </c>
       <c r="J72" s="9">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L72" s="9">
@@ -12153,7 +12153,7 @@
         <v>47.4</v>
       </c>
       <c r="M72" s="9">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>2.8</v>
       </c>
       <c r="N72" s="19"/>
@@ -12167,11 +12167,11 @@
         <v>111</v>
       </c>
       <c r="R72" s="9">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>25.500000000000004</v>
       </c>
       <c r="S72" s="9">
-        <f t="shared" si="20"/>
+        <f t="shared" si="16"/>
         <v>18.357142857142858</v>
       </c>
       <c r="T72" s="9">
@@ -12187,7 +12187,7 @@
         <v>4.8</v>
       </c>
       <c r="X72" s="9">
-        <f t="shared" si="21"/>
+        <f t="shared" si="17"/>
         <v>12</v>
       </c>
     </row>
@@ -12223,7 +12223,7 @@
         <v>13</v>
       </c>
       <c r="J73" s="9">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>-1</v>
       </c>
       <c r="L73" s="9">
@@ -12231,24 +12231,24 @@
         <v>10</v>
       </c>
       <c r="M73" s="9">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>2.4</v>
       </c>
       <c r="N73" s="19">
-        <f t="shared" ref="N73:N74" si="22">14*M73-L73-F73</f>
+        <f t="shared" ref="N73:N74" si="18">14*M73-L73-F73</f>
         <v>14.600000000000001</v>
       </c>
       <c r="O73" s="19">
-        <f t="shared" ref="O71:O82" si="23">N73</f>
+        <f t="shared" ref="O73:O79" si="19">N73</f>
         <v>14.600000000000001</v>
       </c>
       <c r="P73" s="19"/>
       <c r="R73" s="9">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>14.000000000000002</v>
       </c>
       <c r="S73" s="9">
-        <f t="shared" si="20"/>
+        <f t="shared" si="16"/>
         <v>7.916666666666667</v>
       </c>
       <c r="T73" s="9">
@@ -12264,7 +12264,7 @@
         <v>1.8</v>
       </c>
       <c r="X73" s="9">
-        <f t="shared" si="21"/>
+        <f t="shared" si="17"/>
         <v>8.76</v>
       </c>
     </row>
@@ -12300,7 +12300,7 @@
         <v>42</v>
       </c>
       <c r="J74" s="9">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>-5</v>
       </c>
       <c r="L74" s="9">
@@ -12308,24 +12308,24 @@
         <v>0</v>
       </c>
       <c r="M74" s="9">
+        <f t="shared" si="14"/>
+        <v>7.4</v>
+      </c>
+      <c r="N74" s="19">
         <f t="shared" si="18"/>
-        <v>7.4</v>
-      </c>
-      <c r="N74" s="19">
-        <f t="shared" si="22"/>
         <v>61.600000000000009</v>
       </c>
       <c r="O74" s="19">
-        <f t="shared" si="23"/>
+        <f t="shared" si="19"/>
         <v>61.600000000000009</v>
       </c>
       <c r="P74" s="19"/>
       <c r="R74" s="9">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>14</v>
       </c>
       <c r="S74" s="9">
-        <f t="shared" si="20"/>
+        <f t="shared" si="16"/>
         <v>5.6756756756756754</v>
       </c>
       <c r="T74" s="9">
@@ -12341,7 +12341,7 @@
         <v>-0.2</v>
       </c>
       <c r="X74" s="9">
-        <f t="shared" si="21"/>
+        <f t="shared" si="17"/>
         <v>17.248000000000005</v>
       </c>
     </row>
@@ -12373,28 +12373,28 @@
         <v>2</v>
       </c>
       <c r="J75" s="9">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>-1</v>
       </c>
       <c r="L75" s="9">
         <v>0</v>
       </c>
       <c r="M75" s="9">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>0.2</v>
       </c>
       <c r="N75" s="19"/>
       <c r="O75" s="19">
-        <f t="shared" si="23"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="P75" s="19"/>
       <c r="R75" s="9">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>235</v>
       </c>
       <c r="S75" s="9">
-        <f t="shared" si="20"/>
+        <f t="shared" si="16"/>
         <v>235</v>
       </c>
       <c r="T75" s="9">
@@ -12410,7 +12410,7 @@
         <v>105</v>
       </c>
       <c r="X75" s="9">
-        <f t="shared" si="21"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -12446,7 +12446,7 @@
         <v>9.1</v>
       </c>
       <c r="J76" s="9">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>-0.90000000000000036</v>
       </c>
       <c r="L76" s="9">
@@ -12454,21 +12454,21 @@
         <v>0</v>
       </c>
       <c r="M76" s="9">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>1.64</v>
       </c>
       <c r="N76" s="19"/>
       <c r="O76" s="19">
-        <f t="shared" si="23"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="P76" s="19"/>
       <c r="R76" s="9">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>-22.329268292682926</v>
       </c>
       <c r="S76" s="9">
-        <f t="shared" si="20"/>
+        <f t="shared" si="16"/>
         <v>-22.329268292682926</v>
       </c>
       <c r="T76" s="9">
@@ -12484,7 +12484,7 @@
         <v>3.5159999999999996</v>
       </c>
       <c r="X76" s="9">
-        <f t="shared" si="21"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -12520,7 +12520,7 @@
         <v>86</v>
       </c>
       <c r="J77" s="9">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>-3</v>
       </c>
       <c r="L77" s="9">
@@ -12528,21 +12528,21 @@
         <v>0</v>
       </c>
       <c r="M77" s="9">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>16.600000000000001</v>
       </c>
       <c r="N77" s="19"/>
       <c r="O77" s="19">
-        <f t="shared" si="23"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="P77" s="19"/>
       <c r="R77" s="9">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>-23.493975903614455</v>
       </c>
       <c r="S77" s="9">
-        <f t="shared" si="20"/>
+        <f t="shared" si="16"/>
         <v>-23.493975903614455</v>
       </c>
       <c r="T77" s="9">
@@ -12558,7 +12558,7 @@
         <v>27.8</v>
       </c>
       <c r="X77" s="9">
-        <f t="shared" si="21"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -12592,7 +12592,7 @@
         <v>20</v>
       </c>
       <c r="J78" s="9">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L78" s="9">
@@ -12600,21 +12600,21 @@
         <v>0</v>
       </c>
       <c r="M78" s="9">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>4</v>
       </c>
       <c r="N78" s="19"/>
       <c r="O78" s="19">
-        <f t="shared" si="23"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="P78" s="19"/>
       <c r="R78" s="9">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>-14.5</v>
       </c>
       <c r="S78" s="9">
-        <f t="shared" si="20"/>
+        <f t="shared" si="16"/>
         <v>-14.5</v>
       </c>
       <c r="T78" s="9">
@@ -12630,7 +12630,7 @@
         <v>4</v>
       </c>
       <c r="X78" s="9">
-        <f t="shared" si="21"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -12664,7 +12664,7 @@
         <v>36</v>
       </c>
       <c r="J79" s="9">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L79" s="9">
@@ -12672,21 +12672,21 @@
         <v>0</v>
       </c>
       <c r="M79" s="9">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>7.2</v>
       </c>
       <c r="N79" s="19"/>
       <c r="O79" s="19">
-        <f t="shared" si="23"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="P79" s="19"/>
       <c r="R79" s="9">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>-18.888888888888889</v>
       </c>
       <c r="S79" s="9">
-        <f t="shared" si="20"/>
+        <f t="shared" si="16"/>
         <v>-18.888888888888889</v>
       </c>
       <c r="T79" s="9">
@@ -12702,7 +12702,7 @@
         <v>8.6</v>
       </c>
       <c r="X79" s="9">
-        <f t="shared" si="21"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -12735,7 +12735,7 @@
         <v>119</v>
       </c>
       <c r="X80" s="9">
-        <f t="shared" si="21"/>
+        <f t="shared" si="17"/>
         <v>10.4</v>
       </c>
     </row>
@@ -12768,7 +12768,7 @@
         <v>119</v>
       </c>
       <c r="X81" s="9">
-        <f t="shared" si="21"/>
+        <f t="shared" si="17"/>
         <v>20</v>
       </c>
     </row>
@@ -12801,7 +12801,7 @@
         <v>119</v>
       </c>
       <c r="X82" s="9">
-        <f t="shared" si="21"/>
+        <f t="shared" si="17"/>
         <v>20</v>
       </c>
     </row>
